--- a/test_environment/Workbook3.xlsx
+++ b/test_environment/Workbook3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swvanderlaan/git/MetaGWASToolKit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swvanderlaan/git/MetaGWASToolKit/test_environment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="105">
   <si>
     <t>VARIANTID</t>
   </si>
@@ -321,6 +321,27 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>GENES_250KB</t>
+  </si>
+  <si>
+    <t>chr1:1050654:C_CA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>C1orf159,FAM132A,FAM41C,AL645608.2,RP11-54O7.16,RP11-54O7.1,RP11-54O7.2,RP11-54O7.3,SAMD11,AL645608.1,NOC2L,KLHL17,PLEKHN1,C1orf170,RP11-54O7.17,HES4,RP11-54O7.11,ISG15,AGRN,RP11-54O7.14,RP11-465B22.3,RP11-54O7.18,RNF223,RP11-465B22.5,MIR200B,MIR200A,MIR429,RP11-465B22.8,TTLL10-AS1,TTLL10,TNFRSF18,TNFRSF4,SDF4,B3GALT6,RP5-902P8.12,UBE2J2,RP5-902P8.10,SCNN1D,ACAP3,PUSL1,CPSF3L,RP5-890O3.9,GLTPD1,TAS1R3,DVL1,MXRA8</t>
+  </si>
+  <si>
+    <t>C1orf159</t>
+  </si>
+  <si>
+    <t>ENST00000379339.1</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -636,14 +657,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:CI3"/>
+  <dimension ref="B1:CI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW2" workbookViewId="0">
-      <selection activeCell="BZ3" sqref="BZ3"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BI13" sqref="BI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+    </row>
     <row r="2" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
@@ -1161,6 +1442,526 @@
         <v>97</v>
       </c>
       <c r="CI3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1050655</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>0.26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>89</v>
+      </c>
+      <c r="R14" t="s">
+        <v>87</v>
+      </c>
+      <c r="S14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14">
+        <v>0.1429</v>
+      </c>
+      <c r="W14">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="X14">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="Z14">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="AA14">
+        <v>488.6</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH14">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="BI14">
+        <v>488.6</v>
+      </c>
+      <c r="BJ14">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>0.98963999999999996</v>
+      </c>
+      <c r="BL14">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="BM14">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="BN14">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>0.98963999999999996</v>
+      </c>
+      <c r="BP14">
+        <v>-0.161</v>
+      </c>
+      <c r="BQ14">
+        <v>0.159</v>
+      </c>
+      <c r="BR14">
+        <v>-1E-3</v>
+      </c>
+      <c r="BS14">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="BT14">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="BU14" s="1">
+        <v>0.98963999999999996</v>
+      </c>
+      <c r="BV14">
+        <v>-0.161</v>
+      </c>
+      <c r="BW14">
+        <v>0.159</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>97</v>
+      </c>
+      <c r="CI14" t="s">
         <v>89</v>
       </c>
     </row>
